--- a/tests/met_clo_tables.xlsx
+++ b/tests/met_clo_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisyd-my.sharepoint.com/personal/james_smallcombe_sydney_edu_au/Documents/Sydney/SMA heat policy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisyd-my.sharepoint.com/personal/federico_tartarini_sydney_edu_au/Documents/github-projects/sma-australia/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{E9CA7AEA-8242-4166-BC8B-F18C3C4C16AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C5067483-2E05-480E-B54D-BB43809D8927}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{E9CA7AEA-8242-4166-BC8B-F18C3C4C16AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24407957-3111-374F-896F-12847FAF6F17}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3517AD88-8F14-423C-8412-B9003B8E3079}"/>
+    <workbookView xWindow="8560" yWindow="500" windowWidth="20240" windowHeight="17500" activeTab="1" xr2:uid="{3517AD88-8F14-423C-8412-B9003B8E3079}"/>
   </bookViews>
   <sheets>
     <sheet name="MET data" sheetId="1" r:id="rId1"/>
@@ -1785,19 +1785,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1807,20 +1805,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1892,36 +1886,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1974,13 +1952,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1992,31 +1970,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2026,9 +1992,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2043,10 +2006,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2071,14 +2034,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2094,24 +2057,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2121,32 +2078,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2159,10 +2113,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2180,39 +2134,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2224,29 +2161,23 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2303,16 +2234,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2325,6 +2252,15 @@
     <xf numFmtId="165" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2346,7 +2282,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2388,15 +2324,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2441,6 +2368,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2818,2042 +2748,1970 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA29E39B-F556-4903-B2E9-266BC4E5155B}">
-  <dimension ref="B2:T102"/>
+  <dimension ref="B2:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="63.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="68.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="63.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="68.6640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="11" width="28.1796875" customWidth="1"/>
-    <col min="12" max="12" width="22.26953125" customWidth="1"/>
-    <col min="13" max="13" width="6.26953125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="20.7265625" customWidth="1"/>
-    <col min="16" max="17" width="25.453125" customWidth="1"/>
-    <col min="18" max="19" width="26.7265625" customWidth="1"/>
+    <col min="11" max="11" width="28.1640625" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="17" width="25.5" customWidth="1"/>
+    <col min="18" max="19" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="209" t="s">
+    <row r="2" spans="2:19" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="183" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="211"/>
-      <c r="N2" s="209" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="185"/>
+      <c r="N2" s="183" t="s">
         <v>155</v>
       </c>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="202"/>
-    </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="221" t="s">
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="175"/>
+    </row>
+    <row r="3" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="223"/>
-      <c r="J4" s="221" t="s">
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="197"/>
+      <c r="J4" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="222"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="131"/>
-    </row>
-    <row r="5" spans="2:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="52" t="s">
+      <c r="K4" s="196"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="82"/>
+    </row>
+    <row r="5" spans="2:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="52" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="132"/>
-      <c r="N5" s="225" t="s">
+      <c r="M5" s="114"/>
+      <c r="N5" s="199" t="s">
         <v>146</v>
       </c>
-      <c r="O5" s="226"/>
-      <c r="P5" s="227" t="s">
+      <c r="O5" s="200"/>
+      <c r="P5" s="201" t="s">
         <v>147</v>
       </c>
-      <c r="Q5" s="227"/>
-      <c r="R5" s="228" t="s">
+      <c r="Q5" s="201"/>
+      <c r="R5" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="S5" s="229"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="230">
+      <c r="S5" s="203"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="180">
         <v>1</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="11">
         <v>32</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="11">
         <v>1.8</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="72" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="46">
         <v>3</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="154" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="136" t="s">
         <v>153</v>
       </c>
-      <c r="O6" s="159">
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="P6" s="155" t="s">
+      <c r="P6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q6" s="155">
+      <c r="Q6" s="2">
         <v>7</v>
       </c>
-      <c r="R6" s="155" t="s">
+      <c r="R6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="S6" s="156">
+      <c r="S6" s="137">
         <v>10</v>
       </c>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="231"/>
-      <c r="C7" s="47" t="s">
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="181"/>
+      <c r="C7" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>56</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>3.2</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="73" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="47">
         <v>7</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="154" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="159">
+      <c r="O7">
         <v>4.3</v>
       </c>
-      <c r="P7" s="155" t="s">
+      <c r="P7" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Q7" s="155">
+      <c r="Q7" s="2">
         <v>6</v>
       </c>
-      <c r="R7" s="155" t="s">
+      <c r="R7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="S7" s="156">
+      <c r="S7" s="137">
         <v>6</v>
       </c>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="232"/>
-      <c r="C8" s="48" t="s">
+    </row>
+    <row r="8" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="182"/>
+      <c r="C8" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="15">
         <v>93</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="15">
         <v>5.3</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="74" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="48">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="154" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="O8" s="159">
+      <c r="O8">
         <v>3.5</v>
       </c>
-      <c r="P8" s="155" t="s">
+      <c r="P8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q8" s="155">
+      <c r="Q8" s="2">
         <v>8</v>
       </c>
-      <c r="R8" s="155" t="s">
+      <c r="R8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="156">
+      <c r="S8" s="137">
         <v>10</v>
       </c>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B9" s="230">
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="180">
         <v>2</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="11">
         <v>70</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="75" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="49">
         <v>4</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="154" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="159">
+      <c r="O9">
         <v>3.75</v>
       </c>
-      <c r="P9" s="155" t="s">
+      <c r="P9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="155">
+      <c r="Q9" s="2">
         <v>4.8</v>
       </c>
-      <c r="R9" s="155" t="s">
+      <c r="R9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="156">
+      <c r="S9" s="137">
         <v>7.3</v>
       </c>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="231"/>
-      <c r="C10" s="47" t="s">
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="181"/>
+      <c r="C10" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>105</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="76" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="50">
         <v>6</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="154" t="s">
+      <c r="M10" s="2"/>
+      <c r="N10" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="159">
+      <c r="O10">
         <v>2.5</v>
       </c>
-      <c r="P10" s="155" t="s">
+      <c r="P10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q10" s="155">
+      <c r="Q10" s="2">
         <v>5.5</v>
       </c>
-      <c r="R10" s="155" t="s">
+      <c r="R10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="156">
+      <c r="S10" s="137">
         <v>8</v>
       </c>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="232"/>
-      <c r="C11" s="48" t="s">
+    </row>
+    <row r="11" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="182"/>
+      <c r="C11" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="15">
         <v>140</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="15">
         <v>8</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="77" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="51">
         <v>10</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="154" t="s">
+      <c r="M11" s="2"/>
+      <c r="N11" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="159">
+      <c r="O11">
         <v>3</v>
       </c>
-      <c r="P11" s="155" t="s">
+      <c r="P11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q11" s="155">
+      <c r="Q11" s="2">
         <v>5.8</v>
       </c>
-      <c r="R11" s="155" t="s">
+      <c r="R11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="156">
+      <c r="S11" s="137">
         <v>8</v>
       </c>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B12" s="230">
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="180">
         <v>3</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="11">
         <v>84</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="11">
         <v>4.8</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="78" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="46">
         <v>3.5</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="157" t="s">
+      <c r="M12" s="2"/>
+      <c r="N12" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="O12" s="159">
+      <c r="O12">
         <v>4.3</v>
       </c>
-      <c r="P12" s="155" t="s">
+      <c r="P12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="155">
+      <c r="Q12" s="2">
         <v>5</v>
       </c>
-      <c r="R12" s="155" t="s">
+      <c r="R12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="S12" s="156">
+      <c r="S12" s="137">
         <v>8.5</v>
       </c>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B13" s="231"/>
-      <c r="C13" s="47" t="s">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="181"/>
+      <c r="C13" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>103</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>5.9</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="73" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="47">
         <v>5.8</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="155" t="s">
+      <c r="M13" s="2"/>
+      <c r="N13" s="136"/>
+      <c r="P13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="155">
+      <c r="Q13" s="2">
         <v>5</v>
       </c>
-      <c r="R13" s="155" t="s">
+      <c r="R13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="S13" s="156">
+      <c r="S13" s="137">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B14" s="231"/>
-      <c r="C14" s="47" t="s">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="181"/>
+      <c r="C14" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>124</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>7.1</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="73" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="47">
         <v>6.8</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="14" t="s">
+      <c r="M14" s="2"/>
+      <c r="N14" s="136"/>
+      <c r="P14" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="203" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="S14" s="158">
+      <c r="S14" s="137">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B15" s="231"/>
-      <c r="C15" s="47" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="181"/>
+      <c r="C15" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>147</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>8.4</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="73" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="47">
         <v>8</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="155" t="s">
+      <c r="M15" s="2"/>
+      <c r="N15" s="136"/>
+      <c r="P15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Q15" s="155">
+      <c r="Q15" s="2">
         <v>5.8</v>
       </c>
-      <c r="R15" s="203" t="s">
+      <c r="R15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S15" s="158">
+      <c r="S15" s="137">
         <v>7.8</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="232"/>
-      <c r="C16" s="48" t="s">
+    <row r="16" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="182"/>
+      <c r="C16" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="15">
         <v>172</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="15">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="74" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="48">
         <v>10</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="159"/>
-      <c r="P16" s="14" t="s">
+      <c r="M16" s="2"/>
+      <c r="N16" s="136"/>
+      <c r="P16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="203" t="s">
+      <c r="Q16" s="10"/>
+      <c r="R16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="S16" s="158">
+      <c r="S16" s="137">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="92">
+    <row r="17" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="77">
         <v>4</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="25">
         <v>105</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="25">
         <v>6</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="79" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="52">
         <v>6</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="14" t="s">
+      <c r="M17" s="2"/>
+      <c r="N17" s="136"/>
+      <c r="P17" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="203" t="s">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="S17" s="158">
+      <c r="S17" s="137">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="92">
+    <row r="18" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="77">
         <v>5</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="25">
         <v>180</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="25">
         <v>10.3</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="80" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="53">
         <v>10</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
-      <c r="R18" s="14" t="s">
+      <c r="M18" s="2"/>
+      <c r="N18" s="136"/>
+      <c r="R18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="160"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="230">
+      <c r="S18" s="138"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="180">
         <v>6</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="11">
         <v>89</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="78" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="49">
         <v>4.3</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="159"/>
-      <c r="R19" s="14" t="s">
+      <c r="M19" s="2"/>
+      <c r="N19" s="136"/>
+      <c r="R19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S19" s="160"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B20" s="231"/>
-      <c r="C20" s="47" t="s">
+      <c r="S19" s="138"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="181"/>
+      <c r="C20" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="73" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="50">
         <v>5.3</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="159"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="14" t="s">
+      <c r="M20" s="2"/>
+      <c r="N20" s="136"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="160"/>
-    </row>
-    <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="232"/>
-      <c r="C21" s="48" t="s">
+      <c r="S20" s="138"/>
+    </row>
+    <row r="21" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="182"/>
+      <c r="C21" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="74" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="61">
+      <c r="J21" s="51">
         <v>3.5</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="L21" s="64" t="s">
+      <c r="L21" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="155" t="s">
+      <c r="M21" s="2"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="S21" s="156">
+      <c r="S21" s="137">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="92">
+    <row r="22" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="77">
         <v>7</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="25">
         <v>119</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="25">
         <v>6.8</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="80" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="63">
+      <c r="J22" s="53">
         <v>7.3</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="205" t="s">
+      <c r="M22" s="2"/>
+      <c r="N22" s="176" t="s">
         <v>217</v>
       </c>
-      <c r="O22" s="206">
+      <c r="O22" s="177">
         <f>AVERAGE(O6:O12)</f>
         <v>3.4785714285714286</v>
       </c>
-      <c r="P22" s="207" t="s">
+      <c r="P22" s="178" t="s">
         <v>217</v>
       </c>
-      <c r="Q22" s="206">
+      <c r="Q22" s="177">
         <f>AVERAGE(Q6:Q15)</f>
         <v>5.8777777777777773</v>
       </c>
-      <c r="R22" s="207" t="s">
+      <c r="R22" s="178" t="s">
         <v>217</v>
       </c>
-      <c r="S22" s="208">
+      <c r="S22" s="179">
         <f>AVERAGE(S6:S21)</f>
         <v>8.4769230769230752</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="92">
+    <row r="23" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="77">
         <v>8</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="25">
         <v>194</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="25">
         <v>11.1</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="80" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="52">
         <v>8</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="224" t="s">
+      <c r="M23" s="2"/>
+      <c r="N23" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="O23" s="224"/>
-      <c r="P23" s="224"/>
-      <c r="Q23" s="224"/>
-      <c r="R23" s="224"/>
-      <c r="S23" s="224"/>
-    </row>
-    <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="92">
+      <c r="O23" s="198"/>
+      <c r="P23" s="198"/>
+      <c r="Q23" s="198"/>
+      <c r="R23" s="198"/>
+      <c r="S23" s="198"/>
+    </row>
+    <row r="24" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="77">
         <v>9</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="81" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="92">
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+    </row>
+    <row r="25" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="77">
         <v>10</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="81" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="198"/>
-      <c r="P25" s="143" t="s">
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="144" t="s">
+      <c r="Q25" s="125"/>
+      <c r="R25" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="131"/>
-    </row>
-    <row r="26" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="92">
+      <c r="S25" s="82"/>
+    </row>
+    <row r="26" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="77">
         <v>11</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="25">
         <v>107</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="25">
         <v>6.1</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="80" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="53">
         <v>4.8</v>
       </c>
-      <c r="K26" s="43" t="s">
+      <c r="K26" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="145" t="s">
+      <c r="M26" s="2"/>
+      <c r="N26" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="O26" s="199"/>
-      <c r="P26" s="133" t="s">
+      <c r="O26" s="172"/>
+      <c r="P26" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="146" t="s">
+      <c r="Q26" s="115"/>
+      <c r="R26" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="S26" s="133"/>
-    </row>
-    <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="92">
+      <c r="S26" s="115"/>
+    </row>
+    <row r="27" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="77">
         <v>12</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="80" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="62">
+      <c r="J27" s="52">
         <v>8</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="147" t="s">
+      <c r="M27" s="2"/>
+      <c r="N27" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="O27" s="200"/>
-      <c r="P27" s="134" t="s">
+      <c r="O27" s="173"/>
+      <c r="P27" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="148" t="s">
+      <c r="Q27" s="116"/>
+      <c r="R27" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="S27" s="134"/>
-    </row>
-    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="92">
+      <c r="S27" s="116"/>
+    </row>
+    <row r="28" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="77">
         <v>13</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="80" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="J28" s="63">
+      <c r="J28" s="53">
         <v>3.5</v>
       </c>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="149" t="s">
+      <c r="M28" s="2"/>
+      <c r="N28" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="O28" s="201"/>
-      <c r="P28" s="135" t="s">
+      <c r="O28" s="174"/>
+      <c r="P28" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="150" t="s">
+      <c r="Q28" s="117"/>
+      <c r="R28" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="S28" s="135"/>
-    </row>
-    <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="92">
+      <c r="S28" s="117"/>
+    </row>
+    <row r="29" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="77">
         <v>14</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="80" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="52">
         <v>8.5</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="149" t="s">
+      <c r="M29" s="2"/>
+      <c r="N29" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="201"/>
-      <c r="P29" s="135" t="s">
+      <c r="O29" s="174"/>
+      <c r="P29" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="150" t="s">
+      <c r="Q29" s="117"/>
+      <c r="R29" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="S29" s="135"/>
-    </row>
-    <row r="30" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="92">
+      <c r="S29" s="117"/>
+    </row>
+    <row r="30" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="77">
         <v>15</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="80" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="63">
+      <c r="J30" s="53">
         <v>3</v>
       </c>
-      <c r="K30" s="34" t="s">
+      <c r="K30" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="149" t="s">
+      <c r="M30" s="2"/>
+      <c r="N30" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="201"/>
-      <c r="P30" s="135">
+      <c r="O30" s="174"/>
+      <c r="P30" s="117">
         <v>10</v>
       </c>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="150">
+      <c r="Q30" s="117"/>
+      <c r="R30" s="132">
         <v>7.6</v>
       </c>
-      <c r="S30" s="135"/>
-    </row>
-    <row r="31" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="230">
+      <c r="S30" s="117"/>
+    </row>
+    <row r="31" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="180">
         <v>16</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="11">
         <v>137</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="11">
         <v>7.8</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="82" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="62">
+      <c r="J31" s="52">
         <v>5.8</v>
       </c>
-      <c r="K31" s="43" t="s">
+      <c r="K31" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="152"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="9"/>
-    </row>
-    <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="232"/>
-      <c r="C32" s="48" t="s">
+      <c r="M31" s="2"/>
+      <c r="N31" s="133"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="135"/>
+    </row>
+    <row r="32" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="182"/>
+      <c r="C32" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="15">
         <v>193</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="15">
         <v>11</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="83" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="62">
+      <c r="J32" s="52">
         <v>12.5</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="212" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="186" t="s">
         <v>142</v>
       </c>
-      <c r="O32" s="213"/>
-      <c r="P32" s="213"/>
-      <c r="Q32" s="213"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="163"/>
-    </row>
-    <row r="33" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="92">
+      <c r="O32" s="187"/>
+      <c r="P32" s="187"/>
+      <c r="Q32" s="187"/>
+      <c r="R32" s="188"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="77">
         <v>17</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="25">
         <v>123</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="25">
         <v>7</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="80" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="J33" s="63">
+      <c r="J33" s="53">
         <v>5.5</v>
       </c>
-      <c r="K33" s="43" t="s">
+      <c r="K33" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L33" s="28" t="s">
+      <c r="L33" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="215"/>
-      <c r="O33" s="216"/>
-      <c r="P33" s="216"/>
-      <c r="Q33" s="216"/>
-      <c r="R33" s="217"/>
-      <c r="S33" s="163"/>
-    </row>
-    <row r="34" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="92">
+      <c r="M33" s="2"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="190"/>
+      <c r="P33" s="190"/>
+      <c r="Q33" s="190"/>
+      <c r="R33" s="191"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="77">
         <v>18</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="25">
         <v>105</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="25">
         <v>6</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="80" t="s">
+      <c r="H34" s="2"/>
+      <c r="I34" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="52">
         <v>6</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="L34" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="215"/>
-      <c r="O34" s="216"/>
-      <c r="P34" s="216"/>
-      <c r="Q34" s="216"/>
-      <c r="R34" s="217"/>
-      <c r="S34" s="163"/>
-    </row>
-    <row r="35" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="92">
+      <c r="M34" s="2"/>
+      <c r="N34" s="189"/>
+      <c r="O34" s="190"/>
+      <c r="P34" s="190"/>
+      <c r="Q34" s="190"/>
+      <c r="R34" s="191"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="77">
         <v>19</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="84" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="J35" s="68">
+      <c r="J35" s="58">
         <v>5.8</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K35" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L35" s="28" t="s">
+      <c r="L35" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="218"/>
-      <c r="O35" s="219"/>
-      <c r="P35" s="219"/>
-      <c r="Q35" s="219"/>
-      <c r="R35" s="220"/>
-      <c r="S35" s="163"/>
-    </row>
-    <row r="36" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="92">
+      <c r="M35" s="2"/>
+      <c r="N35" s="192"/>
+      <c r="O35" s="193"/>
+      <c r="P35" s="193"/>
+      <c r="Q35" s="193"/>
+      <c r="R35" s="194"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="77">
         <v>20</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="25">
         <v>39</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="80" t="s">
+      <c r="H36" s="2"/>
+      <c r="I36" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="J36" s="62">
+      <c r="J36" s="52">
         <v>2.8</v>
       </c>
-      <c r="K36" s="34" t="s">
+      <c r="K36" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="L36" s="36" t="s">
+      <c r="L36" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="92">
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="77">
         <v>21</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="25">
         <v>180</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="25">
         <v>10.3</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="80" t="s">
+      <c r="H37" s="2"/>
+      <c r="I37" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="J37" s="63">
+      <c r="J37" s="53">
         <v>7.8</v>
       </c>
-      <c r="K37" s="27" t="s">
+      <c r="K37" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="92">
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="77">
         <v>22</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="G38" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="80" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="62" t="s">
+      <c r="J38" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="43" t="s">
+      <c r="K38" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="L38" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="92">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="77">
         <v>23</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="25">
         <v>221</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="25">
         <v>12.6</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="85" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="J39" s="63">
+      <c r="J39" s="53">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K39" s="27" t="s">
+      <c r="K39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L39" s="28" t="s">
+      <c r="L39" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="92">
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="77">
         <v>24</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="39">
+      <c r="D40" s="25">
         <v>221</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="25">
         <v>12.6</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="80" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="J40" s="62">
+      <c r="J40" s="52">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="K40" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L40" s="28" t="s">
+      <c r="L40" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B41" s="230">
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B41" s="180">
         <v>25</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="11">
         <v>96</v>
       </c>
-      <c r="E41" s="44">
+      <c r="E41" s="11">
         <v>5.5</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="86" t="s">
+      <c r="H41" s="2"/>
+      <c r="I41" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="56">
+      <c r="J41" s="46">
         <v>2.8</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L41" s="23" t="s">
+      <c r="L41" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B42" s="231"/>
-      <c r="C42" s="47" t="s">
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" s="181"/>
+      <c r="C42" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>180</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>10.3</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="85" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="J42" s="60">
+      <c r="J42" s="50">
         <v>5.8</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="24" t="s">
+      <c r="L42" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B43" s="231"/>
-      <c r="C43" s="47" t="s">
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B43" s="181"/>
+      <c r="C43" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>236</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>13.5</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="85" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="J43" s="60">
+      <c r="J43" s="50">
         <v>12</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="K43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B44" s="231"/>
-      <c r="C44" s="47" t="s">
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44" s="181"/>
+      <c r="C44" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>287</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="85" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="J44" s="60">
+      <c r="J44" s="50">
         <v>12.5</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L44" s="24" t="s">
+      <c r="L44" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="232"/>
-      <c r="C45" s="48" t="s">
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="182"/>
+      <c r="C45" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="15">
         <v>334</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="15">
         <v>19.100000000000001</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="92">
+      <c r="H45" s="2"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="60"/>
+    </row>
+    <row r="46" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="77">
         <v>26</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="85" t="s">
+      <c r="H46" s="2"/>
+      <c r="I46" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="J46" s="63">
+      <c r="J46" s="53">
         <v>8</v>
       </c>
-      <c r="K46" s="27" t="s">
+      <c r="K46" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L46" s="28" t="s">
+      <c r="L46" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="92">
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="77">
         <v>27</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="88" t="s">
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="J47" s="71"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="92">
+      <c r="J47" s="61"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="57"/>
+    </row>
+    <row r="48" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="77">
         <v>28</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="80" t="s">
+      <c r="F48" s="25"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="J48" s="63">
+      <c r="J48" s="53">
         <v>2.5</v>
       </c>
-      <c r="K48" s="34" t="s">
+      <c r="K48" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="35" t="s">
+      <c r="L48" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="92">
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="77">
         <v>29</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="25">
         <v>70</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="25">
         <v>4</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="80" t="s">
+      <c r="H49" s="2"/>
+      <c r="I49" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="J49" s="63">
+      <c r="J49" s="53">
         <v>5</v>
       </c>
-      <c r="K49" s="43" t="s">
+      <c r="K49" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L49" s="28" t="s">
+      <c r="L49" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="92">
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="77">
         <v>30</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="89" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="65"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="92">
+      <c r="J50" s="55"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="57"/>
+    </row>
+    <row r="51" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="77">
         <v>31</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="25">
         <v>70</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="25">
         <v>4</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="85" t="s">
+      <c r="H51" s="2"/>
+      <c r="I51" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="J51" s="63">
+      <c r="J51" s="53">
         <v>5</v>
       </c>
-      <c r="K51" s="43" t="s">
+      <c r="K51" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="28" t="s">
+      <c r="L51" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="92">
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="77">
         <v>32</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="25">
         <v>75</v>
       </c>
-      <c r="E52" s="39">
+      <c r="E52" s="25">
         <v>4.3</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="36" t="s">
+      <c r="G52" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="90" t="s">
+      <c r="H52" s="2"/>
+      <c r="I52" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="J52" s="62">
+      <c r="J52" s="52">
         <v>4.3</v>
       </c>
-      <c r="K52" s="43" t="s">
+      <c r="K52" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L52" s="36" t="s">
+      <c r="L52" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C56" s="136"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C57" s="138"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C58" s="138"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C59" s="138"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C60" s="138"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="M52" s="2"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C56" s="118"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C57" s="120"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C58" s="120"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C59" s="120"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C60" s="120"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D102">
         <v>75</v>
       </c>
@@ -4863,12 +4721,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="N32:R35"/>
     <mergeCell ref="D4:G4"/>
@@ -4878,6 +4730,12 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4888,1738 +4746,1383 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C87ECCF-4C63-4754-9F45-035D8A2696A9}">
   <dimension ref="B1:AF61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:J2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" customWidth="1"/>
-    <col min="9" max="9" width="21.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="93"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:32" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="233" t="s">
+    <row r="1" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:32" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="204" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="235"/>
-    </row>
-    <row r="3" spans="2:32" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="110" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="206"/>
+    </row>
+    <row r="3" spans="2:32" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="J3" s="106" t="s">
+      <c r="J3" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="K3" s="236" t="s">
+      <c r="K3" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
-      <c r="Q3" s="237"/>
-      <c r="R3" s="237"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="237"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="237"/>
-      <c r="AD3" s="237"/>
-      <c r="AE3" s="237"/>
-      <c r="AF3" s="238"/>
-    </row>
-    <row r="4" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="91">
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="208"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="208"/>
+      <c r="X3" s="208"/>
+      <c r="Y3" s="208"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="208"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="208"/>
+      <c r="AE3" s="208"/>
+      <c r="AF3" s="209"/>
+    </row>
+    <row r="4" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="76">
         <v>1</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="95"/>
-    </row>
-    <row r="5" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="230">
+      <c r="D4" s="46"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="80"/>
+    </row>
+    <row r="5" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="180">
         <v>2</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="81">
         <v>0.14699999999999999</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="82">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="82">
         <v>6.3E-2</v>
       </c>
-      <c r="G5" s="97">
+      <c r="G5" s="219">
         <v>0.40500000000000003</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="83">
         <v>0.02</v>
       </c>
-      <c r="I5" s="98">
+      <c r="I5" s="83">
         <v>0.01</v>
       </c>
-      <c r="J5" s="99">
+      <c r="J5" s="84">
         <v>0.45</v>
       </c>
-      <c r="K5" s="128" t="s">
+      <c r="K5" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="100"/>
-    </row>
-    <row r="6" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="231"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="107">
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="AF5" s="85"/>
+    </row>
+    <row r="6" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="181"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="92">
         <v>0.15</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="83">
         <v>0.97</v>
       </c>
-      <c r="F6" s="97">
+      <c r="F6" s="82">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G6" s="97">
+      <c r="G6" s="219">
         <v>0.438</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="83">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I6" s="98">
+      <c r="I6" s="83">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J6" s="99">
+      <c r="J6" s="84">
         <v>0.44</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="100"/>
-    </row>
-    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="232"/>
-      <c r="C7" s="111" t="s">
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="AF6" s="85"/>
+    </row>
+    <row r="7" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="182"/>
+      <c r="C7" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="81">
         <v>0.125</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="82">
         <v>0.80800000000000005</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="82">
         <v>3.9E-2</v>
       </c>
-      <c r="G7" s="97">
+      <c r="G7" s="219">
         <v>0.252</v>
       </c>
-      <c r="H7" s="98">
+      <c r="H7" s="83">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I7" s="98">
+      <c r="I7" s="83">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J7" s="99">
+      <c r="J7" s="84">
         <v>0.42</v>
       </c>
-      <c r="K7" s="128" t="s">
+      <c r="K7" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="100"/>
-    </row>
-    <row r="8" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="230">
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="AF7" s="85"/>
+    </row>
+    <row r="8" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="180">
         <v>3</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="81">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="82">
         <v>0.92700000000000005</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="82">
         <v>6.2E-2</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="219">
         <v>0.39900000000000002</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="82">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I8" s="97">
+      <c r="I8" s="82">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J8" s="99">
+      <c r="J8" s="84">
         <v>0.47</v>
       </c>
-      <c r="K8" s="128" t="s">
+      <c r="K8" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="100"/>
-    </row>
-    <row r="9" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="232"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="96">
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="AF8" s="85"/>
+    </row>
+    <row r="9" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="182"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="81">
         <v>0.182</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="82">
         <v>1.1719999999999999</v>
       </c>
-      <c r="F9" s="97">
+      <c r="F9" s="82">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="219">
         <v>0.64900000000000002</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="82">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I9" s="97">
+      <c r="I9" s="82">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J9" s="99">
+      <c r="J9" s="84">
         <v>0.43</v>
       </c>
-      <c r="K9" s="128" t="s">
+      <c r="K9" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="100"/>
-    </row>
-    <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="91">
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AF9" s="85"/>
+    </row>
+    <row r="10" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="76">
         <v>4</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="100"/>
-    </row>
-    <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="91">
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="AF10" s="85"/>
+    </row>
+    <row r="11" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="76">
         <v>5</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="81">
         <v>0.155</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="82">
         <v>0.998</v>
       </c>
-      <c r="F11" s="97">
+      <c r="F11" s="82">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="219">
         <v>0.47</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="82">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="82">
         <v>1.2E-2</v>
       </c>
-      <c r="J11" s="99">
+      <c r="J11" s="84">
         <v>0.44</v>
       </c>
-      <c r="K11" s="128" t="s">
+      <c r="K11" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="100"/>
-    </row>
-    <row r="12" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="91">
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="AF11" s="85"/>
+    </row>
+    <row r="12" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="76">
         <v>6</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="81">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="82">
         <v>1.103</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="82">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="219">
         <v>0.57599999999999996</v>
       </c>
-      <c r="H12" s="97">
+      <c r="H12" s="82">
         <v>2.7E-2</v>
       </c>
-      <c r="I12" s="97">
+      <c r="I12" s="82">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J12" s="99">
+      <c r="J12" s="84">
         <v>0.38</v>
       </c>
-      <c r="K12" s="128" t="s">
+      <c r="K12" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="100"/>
-    </row>
-    <row r="13" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="230">
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="AF12" s="85"/>
+    </row>
+    <row r="13" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="180">
         <v>7</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="81">
         <v>0.157</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="82">
         <v>1.0129999999999999</v>
       </c>
-      <c r="F13" s="97">
+      <c r="F13" s="82">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="G13" s="97">
+      <c r="G13" s="219">
         <v>0.47599999999999998</v>
       </c>
-      <c r="H13" s="97">
+      <c r="H13" s="82">
         <v>2.3E-2</v>
       </c>
-      <c r="I13" s="97">
+      <c r="I13" s="82">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J13" s="99">
+      <c r="J13" s="84">
         <v>0.42</v>
       </c>
-      <c r="K13" s="128" t="s">
+      <c r="K13" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="100"/>
-    </row>
-    <row r="14" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="232"/>
-      <c r="C14" s="116" t="s">
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="AF13" s="85"/>
+    </row>
+    <row r="14" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="182"/>
+      <c r="C14" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="81">
         <v>0.128</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="82">
         <v>0.82799999999999996</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F14" s="82">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G14" s="97">
+      <c r="G14" s="219">
         <v>0.27200000000000002</v>
       </c>
-      <c r="H14" s="97">
+      <c r="H14" s="82">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I14" s="97">
+      <c r="I14" s="82">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J14" s="99">
+      <c r="J14" s="84">
         <v>0.47</v>
       </c>
-      <c r="K14" s="128" t="s">
+      <c r="K14" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="100"/>
-    </row>
-    <row r="15" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="91">
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="AF14" s="85"/>
+    </row>
+    <row r="15" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="76">
         <v>8</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="81">
         <v>0.14199999999999999</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="82">
         <v>0.91200000000000003</v>
       </c>
-      <c r="F15" s="97">
+      <c r="F15" s="82">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G15" s="97">
+      <c r="G15" s="219">
         <v>0.372</v>
       </c>
-      <c r="H15" s="97">
+      <c r="H15" s="82">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="82">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J15" s="99">
+      <c r="J15" s="84">
         <v>0.42</v>
       </c>
-      <c r="K15" s="128" t="s">
+      <c r="K15" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="L15" s="112"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="112"/>
-      <c r="T15" s="112"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="100"/>
-    </row>
-    <row r="16" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="91">
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="AF15" s="85"/>
+    </row>
+    <row r="16" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="76">
         <v>9</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="100"/>
-    </row>
-    <row r="17" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="91">
+      <c r="D16" s="47"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="AF16" s="85"/>
+    </row>
+    <row r="17" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="76">
         <v>10</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="100"/>
-    </row>
-    <row r="18" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="230">
+      <c r="D17" s="47"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="AF17" s="85"/>
+    </row>
+    <row r="18" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="180">
         <v>11</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="98" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="97" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="128" t="s">
+      <c r="J18" s="93"/>
+      <c r="K18" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="100"/>
-    </row>
-    <row r="19" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="232"/>
-      <c r="C19" s="113" t="s">
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="AF18" s="85"/>
+    </row>
+    <row r="19" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="182"/>
+      <c r="C19" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="98" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="97" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="J19" s="108"/>
-      <c r="K19" s="128" t="s">
+      <c r="J19" s="93"/>
+      <c r="K19" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="100"/>
-    </row>
-    <row r="20" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="91">
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="AF19" s="85"/>
+    </row>
+    <row r="20" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="76">
         <v>12</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="100"/>
-    </row>
-    <row r="21" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="91">
+      <c r="D20" s="47"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="AF20" s="85"/>
+    </row>
+    <row r="21" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="76">
         <v>13</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="100"/>
-    </row>
-    <row r="22" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="91">
+      <c r="D21" s="47"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="AF21" s="85"/>
+    </row>
+    <row r="22" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="76">
         <v>14</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C22" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="100"/>
-    </row>
-    <row r="23" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="91">
+      <c r="D22" s="47"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="AF22" s="85"/>
+    </row>
+    <row r="23" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="76">
         <v>15</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="100"/>
-    </row>
-    <row r="24" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="91">
+      <c r="D23" s="47"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="AF23" s="85"/>
+    </row>
+    <row r="24" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="76">
         <v>16</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="100"/>
-    </row>
-    <row r="25" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="91">
+      <c r="D24" s="47"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="AF24" s="85"/>
+    </row>
+    <row r="25" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="76">
         <v>17</v>
       </c>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="100"/>
-    </row>
-    <row r="26" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="91">
+      <c r="D25" s="47"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="97"/>
+      <c r="AF25" s="85"/>
+    </row>
+    <row r="26" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="76">
         <v>18</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="100"/>
-    </row>
-    <row r="27" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="91">
+      <c r="D26" s="47"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="AF26" s="85"/>
+    </row>
+    <row r="27" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="76">
         <v>19</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="100"/>
-    </row>
-    <row r="28" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="91">
+      <c r="D27" s="47"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="AF27" s="85"/>
+    </row>
+    <row r="28" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="76">
         <v>20</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="100"/>
-    </row>
-    <row r="29" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="91">
+      <c r="D28" s="47"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="97"/>
+      <c r="AF28" s="85"/>
+    </row>
+    <row r="29" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="76">
         <v>21</v>
       </c>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="100"/>
-    </row>
-    <row r="30" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="91">
+      <c r="D29" s="47"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="AF29" s="85"/>
+    </row>
+    <row r="30" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="76">
         <v>22</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="100"/>
-    </row>
-    <row r="31" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="91">
+      <c r="D30" s="47"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="AF30" s="85"/>
+    </row>
+    <row r="31" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="76">
         <v>23</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="100"/>
-    </row>
-    <row r="32" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="91">
+      <c r="D31" s="47"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="97"/>
+      <c r="U31" s="97"/>
+      <c r="AF31" s="85"/>
+    </row>
+    <row r="32" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="76">
         <v>24</v>
       </c>
-      <c r="C32" s="115" t="s">
+      <c r="C32" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="100"/>
-    </row>
-    <row r="33" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="91">
+      <c r="D32" s="47"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="97"/>
+      <c r="AF32" s="85"/>
+    </row>
+    <row r="33" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="76">
         <v>25</v>
       </c>
-      <c r="C33" s="164" t="s">
+      <c r="C33" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="100"/>
-    </row>
-    <row r="34" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="91">
+      <c r="D33" s="47"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="97"/>
+      <c r="AF33" s="85"/>
+    </row>
+    <row r="34" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="76">
         <v>26</v>
       </c>
-      <c r="C34" s="116" t="s">
+      <c r="C34" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="100"/>
-    </row>
-    <row r="35" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="91">
+      <c r="D34" s="47"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="AF34" s="85"/>
+    </row>
+    <row r="35" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="76">
         <v>27</v>
       </c>
-      <c r="C35" s="165" t="s">
+      <c r="C35" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="112"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="100"/>
-    </row>
-    <row r="36" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="91">
+      <c r="D35" s="47"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
+      <c r="S35" s="97"/>
+      <c r="T35" s="97"/>
+      <c r="U35" s="97"/>
+      <c r="AF35" s="85"/>
+    </row>
+    <row r="36" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="76">
         <v>28</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="112"/>
-      <c r="T36" s="112"/>
-      <c r="U36" s="112"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="100"/>
-    </row>
-    <row r="37" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="91">
+      <c r="D36" s="47"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="97"/>
+      <c r="T36" s="97"/>
+      <c r="U36" s="97"/>
+      <c r="AF36" s="85"/>
+    </row>
+    <row r="37" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="76">
         <v>29</v>
       </c>
-      <c r="C37" s="162" t="s">
+      <c r="C37" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="112"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="100"/>
-    </row>
-    <row r="38" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="91">
+      <c r="D37" s="47"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="97"/>
+      <c r="U37" s="97"/>
+      <c r="AF37" s="85"/>
+    </row>
+    <row r="38" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="76">
         <v>30</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="112"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="112"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="100"/>
-    </row>
-    <row r="39" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="230">
+      <c r="D38" s="47"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="97"/>
+      <c r="U38" s="97"/>
+      <c r="AF38" s="85"/>
+    </row>
+    <row r="39" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="180">
         <v>31</v>
       </c>
-      <c r="C39" s="162" t="s">
+      <c r="C39" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="96">
+      <c r="D39" s="81">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E39" s="97">
+      <c r="E39" s="82">
         <v>1.1240000000000001</v>
       </c>
-      <c r="F39" s="97">
+      <c r="F39" s="82">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G39" s="97">
+      <c r="G39" s="219">
         <v>0.63500000000000001</v>
       </c>
-      <c r="H39" s="97">
+      <c r="H39" s="82">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I39" s="97">
+      <c r="I39" s="82">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J39" s="140">
+      <c r="J39" s="122">
         <v>0.4</v>
       </c>
-      <c r="K39" s="128" t="s">
+      <c r="K39" s="111" t="s">
         <v>194</v>
       </c>
-      <c r="L39" s="112"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="112"/>
-      <c r="T39" s="112"/>
-      <c r="U39" s="112"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="100"/>
-    </row>
-    <row r="40" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="232"/>
-      <c r="C40" s="125" t="s">
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="97"/>
+      <c r="R39" s="97"/>
+      <c r="S39" s="97"/>
+      <c r="T39" s="97"/>
+      <c r="U39" s="97"/>
+      <c r="AF39" s="85"/>
+    </row>
+    <row r="40" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="182"/>
+      <c r="C40" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="96">
+      <c r="D40" s="81">
         <v>0.193</v>
       </c>
-      <c r="E40" s="97">
+      <c r="E40" s="82">
         <v>1.2470000000000001</v>
       </c>
-      <c r="F40" s="97">
+      <c r="F40" s="82">
         <v>0.11799999999999999</v>
       </c>
-      <c r="G40" s="97">
+      <c r="G40" s="219">
         <v>0.76200000000000001</v>
       </c>
-      <c r="H40" s="97">
+      <c r="H40" s="82">
         <v>0.03</v>
       </c>
-      <c r="I40" s="97">
+      <c r="I40" s="82">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J40" s="140">
+      <c r="J40" s="122">
         <v>0.39</v>
       </c>
-      <c r="K40" s="128" t="s">
+      <c r="K40" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="100"/>
-    </row>
-    <row r="41" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="91">
+      <c r="L40" s="97"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97"/>
+      <c r="O40" s="97"/>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="97"/>
+      <c r="R40" s="97"/>
+      <c r="S40" s="97"/>
+      <c r="T40" s="97"/>
+      <c r="U40" s="97"/>
+      <c r="AF40" s="85"/>
+    </row>
+    <row r="41" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="76">
         <v>32</v>
       </c>
-      <c r="C41" s="126" t="s">
+      <c r="C41" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="141"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="130"/>
-      <c r="Q41" s="130"/>
-      <c r="R41" s="130"/>
-      <c r="S41" s="130"/>
-      <c r="T41" s="130"/>
-      <c r="U41" s="130"/>
-      <c r="V41" s="101"/>
-      <c r="W41" s="101"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="101"/>
-      <c r="AA41" s="101"/>
-      <c r="AB41" s="101"/>
-      <c r="AC41" s="101"/>
-      <c r="AD41" s="101"/>
-      <c r="AE41" s="101"/>
-      <c r="AF41" s="102"/>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="C43" s="239" t="s">
+      <c r="D41" s="48"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="86"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="86"/>
+      <c r="AA41" s="86"/>
+      <c r="AB41" s="86"/>
+      <c r="AC41" s="86"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="86"/>
+      <c r="AF41" s="87"/>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C43" s="210" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="C44" s="240"/>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="C45" s="240"/>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="C46" s="240"/>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="C47" s="240"/>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="C48" s="240"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C49" s="240"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C50" s="240"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C51" s="240"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C52" s="240"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C53" s="240"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C54" s="240"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C55" s="240"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C56" s="240"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C57" s="240"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C58" s="240"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C59" s="240"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C60" s="240"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C61" s="241"/>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C44" s="211"/>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C45" s="211"/>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C46" s="211"/>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C47" s="211"/>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C48" s="211"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="211"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="211"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="211"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="211"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="211"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="211"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="211"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="211"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="211"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="211"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="211"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="211"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6642,76 +6145,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C812B7FA-3EBE-419F-8FEA-CBA5D1B1A9AB}">
   <dimension ref="C1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView topLeftCell="M5" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="17" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" customWidth="1"/>
-    <col min="20" max="21" width="29.26953125" customWidth="1"/>
-    <col min="22" max="22" width="44.90625" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="20" max="21" width="29.33203125" customWidth="1"/>
+    <col min="22" max="22" width="44.83203125" customWidth="1"/>
     <col min="23" max="23" width="44" customWidth="1"/>
-    <col min="24" max="24" width="30.90625" customWidth="1"/>
+    <col min="24" max="24" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="3:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="172" t="s">
+    <row r="1" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="T2" s="245" t="s">
+      <c r="T2" s="216" t="s">
         <v>215</v>
       </c>
-      <c r="U2" s="246"/>
-      <c r="V2" s="246"/>
-      <c r="W2" s="246"/>
-      <c r="X2" s="247"/>
-    </row>
-    <row r="3" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="169" t="s">
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="218"/>
+    </row>
+    <row r="3" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="173" t="s">
+      <c r="J3" s="147" t="s">
         <v>208</v>
       </c>
-      <c r="K3" s="173" t="s">
+      <c r="K3" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="T3" s="183">
+      <c r="T3" s="156">
         <v>1</v>
       </c>
-      <c r="U3" s="183">
+      <c r="U3" s="156">
         <v>2</v>
       </c>
-      <c r="V3" s="183">
+      <c r="V3" s="156">
         <v>3</v>
       </c>
-      <c r="W3" s="183">
+      <c r="W3" s="156">
         <v>4</v>
       </c>
-      <c r="X3" s="183">
+      <c r="X3" s="156">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J4" s="166" t="s">
+    <row r="4" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="127" t="s">
+      <c r="K4" s="110" t="s">
         <v>149</v>
       </c>
       <c r="L4">
@@ -6726,28 +6229,28 @@
       <c r="Q4">
         <v>1</v>
       </c>
-      <c r="T4" s="184" t="s">
+      <c r="T4" s="157" t="s">
         <v>216</v>
       </c>
-      <c r="U4" s="185" t="s">
+      <c r="U4" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="V4" s="191" t="s">
+      <c r="V4" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="186" t="s">
+      <c r="W4" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="X4" s="187" t="s">
+      <c r="X4" s="160" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C5" s="117"/>
-      <c r="J5" s="167" t="s">
+    <row r="5" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C5" s="102"/>
+      <c r="J5" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="127" t="s">
+      <c r="K5" s="110" t="s">
         <v>149</v>
       </c>
       <c r="L5">
@@ -6762,25 +6265,25 @@
       <c r="Q5">
         <v>2</v>
       </c>
-      <c r="T5" s="188"/>
-      <c r="U5" s="185" t="s">
+      <c r="T5" s="161"/>
+      <c r="U5" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="191" t="s">
+      <c r="V5" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="192" t="s">
+      <c r="W5" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="X5" s="187" t="s">
+      <c r="X5" s="160" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J6" s="166" t="s">
+    <row r="6" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="120" t="s">
+      <c r="K6" s="104" t="s">
         <v>24</v>
       </c>
       <c r="L6">
@@ -6795,23 +6298,23 @@
       <c r="Q6">
         <v>3</v>
       </c>
-      <c r="T6" s="188"/>
-      <c r="U6" s="185" t="s">
+      <c r="T6" s="161"/>
+      <c r="U6" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="191" t="s">
+      <c r="V6" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="186" t="s">
+      <c r="W6" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="188"/>
-    </row>
-    <row r="7" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J7" s="166" t="s">
+      <c r="X6" s="161"/>
+    </row>
+    <row r="7" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="100" t="s">
         <v>95</v>
       </c>
       <c r="L7">
@@ -6826,24 +6329,24 @@
       <c r="Q7">
         <v>2</v>
       </c>
-      <c r="T7" s="188"/>
-      <c r="U7" s="185" t="s">
+      <c r="T7" s="161"/>
+      <c r="U7" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="V7" s="191" t="s">
+      <c r="V7" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="190" t="s">
+      <c r="W7" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="X7" s="188"/>
-    </row>
-    <row r="8" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="118"/>
-      <c r="J8" s="166" t="s">
+      <c r="X7" s="161"/>
+    </row>
+    <row r="8" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="103"/>
+      <c r="J8" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="115" t="s">
+      <c r="K8" s="100" t="s">
         <v>105</v>
       </c>
       <c r="L8">
@@ -6858,23 +6361,23 @@
       <c r="Q8">
         <v>3</v>
       </c>
-      <c r="T8" s="188"/>
-      <c r="U8" s="185" t="s">
+      <c r="T8" s="161"/>
+      <c r="U8" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="189" t="s">
+      <c r="V8" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="W8" s="186" t="s">
+      <c r="W8" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="X8" s="188"/>
-    </row>
-    <row r="9" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J9" s="166" t="s">
+      <c r="X8" s="161"/>
+    </row>
+    <row r="9" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="115" t="s">
+      <c r="K9" s="100" t="s">
         <v>115</v>
       </c>
       <c r="L9">
@@ -6889,24 +6392,24 @@
       <c r="Q9">
         <v>4</v>
       </c>
-      <c r="T9" s="188"/>
-      <c r="U9" s="185" t="s">
+      <c r="T9" s="161"/>
+      <c r="U9" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="191" t="s">
+      <c r="V9" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="W9" s="186" t="s">
+      <c r="W9" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="X9" s="188"/>
-    </row>
-    <row r="10" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="166"/>
-      <c r="J10" s="166" t="s">
+      <c r="X9" s="161"/>
+    </row>
+    <row r="10" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="142"/>
+      <c r="J10" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="115" t="s">
+      <c r="K10" s="100" t="s">
         <v>29</v>
       </c>
       <c r="L10">
@@ -6921,23 +6424,23 @@
       <c r="Q10">
         <v>3</v>
       </c>
-      <c r="T10" s="188"/>
-      <c r="U10" s="185" t="s">
+      <c r="T10" s="161"/>
+      <c r="U10" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="V10" s="191" t="s">
+      <c r="V10" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="W10" s="186" t="s">
+      <c r="W10" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="X10" s="188"/>
-    </row>
-    <row r="11" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="166" t="s">
+      <c r="X10" s="161"/>
+    </row>
+    <row r="11" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="K11" s="126" t="s">
+      <c r="K11" s="109" t="s">
         <v>117</v>
       </c>
       <c r="L11">
@@ -6952,24 +6455,24 @@
       <c r="Q11">
         <v>4</v>
       </c>
-      <c r="T11" s="188"/>
-      <c r="U11" s="185" t="s">
+      <c r="T11" s="161"/>
+      <c r="U11" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="V11" s="191" t="s">
+      <c r="V11" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="W11" s="186" t="s">
+      <c r="W11" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="X11" s="188"/>
-    </row>
-    <row r="12" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="154"/>
-      <c r="J12" s="167" t="s">
+      <c r="X11" s="161"/>
+    </row>
+    <row r="12" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="136"/>
+      <c r="J12" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K12" s="111" t="s">
+      <c r="K12" s="96" t="s">
         <v>179</v>
       </c>
       <c r="L12">
@@ -6984,454 +6487,447 @@
       <c r="Q12">
         <v>5</v>
       </c>
-      <c r="T12" s="188"/>
-      <c r="U12" s="185" t="s">
+      <c r="T12" s="161"/>
+      <c r="U12" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="V12" s="189" t="s">
+      <c r="V12" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="W12" s="186" t="s">
+      <c r="W12" s="159" t="s">
         <v>209</v>
       </c>
-      <c r="X12" s="188"/>
-    </row>
-    <row r="13" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="116"/>
-      <c r="F13" s="154"/>
-      <c r="J13" s="174" t="s">
+      <c r="X12" s="161"/>
+    </row>
+    <row r="13" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="101"/>
+      <c r="F13" s="136"/>
+      <c r="J13" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="K13" s="127" t="s">
+      <c r="K13" s="110" t="s">
         <v>22</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
-      <c r="T13" s="188"/>
-      <c r="U13" s="185" t="s">
+      <c r="T13" s="161"/>
+      <c r="U13" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="V13" s="189" t="s">
+      <c r="V13" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="W13" s="186"/>
-      <c r="X13" s="188"/>
-    </row>
-    <row r="14" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="154"/>
-      <c r="J14" s="167" t="s">
+      <c r="W13" s="159"/>
+      <c r="X13" s="161"/>
+    </row>
+    <row r="14" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="136"/>
+      <c r="J14" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="164" t="s">
+      <c r="K14" s="110" t="s">
         <v>167</v>
       </c>
       <c r="L14">
         <v>2</v>
       </c>
-      <c r="T14" s="188"/>
-      <c r="U14" s="193" t="s">
+      <c r="T14" s="161"/>
+      <c r="U14" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="V14" s="191" t="s">
+      <c r="V14" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="W14" s="186"/>
-      <c r="X14" s="188"/>
-    </row>
-    <row r="15" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F15" s="154"/>
-      <c r="J15" s="167" t="s">
+      <c r="W14" s="159"/>
+      <c r="X14" s="161"/>
+    </row>
+    <row r="15" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="136"/>
+      <c r="J15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="116" t="s">
+      <c r="K15" s="101" t="s">
         <v>171</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
-      <c r="T15" s="194"/>
-      <c r="U15" s="195" t="s">
+      <c r="T15" s="167"/>
+      <c r="U15" s="168" t="s">
         <v>154</v>
       </c>
-      <c r="V15" s="196"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="194"/>
-    </row>
-    <row r="16" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F16" s="154"/>
-      <c r="G16" s="159"/>
-      <c r="J16" s="167" t="s">
+      <c r="V15" s="169"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="167"/>
+    </row>
+    <row r="16" spans="3:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="136"/>
+      <c r="J16" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="K16" s="116" t="s">
+      <c r="K16" s="101" t="s">
         <v>40</v>
       </c>
       <c r="L16">
         <v>2</v>
       </c>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-    </row>
-    <row r="17" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F17" s="154"/>
-      <c r="G17" s="159"/>
-      <c r="J17" s="175" t="s">
+    </row>
+    <row r="17" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="136"/>
+      <c r="J17" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="K17" s="111" t="s">
+      <c r="K17" s="96" t="s">
         <v>181</v>
       </c>
       <c r="L17">
         <v>3</v>
       </c>
-      <c r="U17" s="180" t="s">
+      <c r="U17" s="153" t="s">
         <v>208</v>
       </c>
-      <c r="V17" s="181" t="s">
+      <c r="V17" s="154" t="s">
         <v>207</v>
       </c>
-      <c r="W17" s="182" t="s">
+      <c r="W17" s="155" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="113"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="155"/>
-      <c r="J18" s="167" t="s">
+    <row r="18" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="98"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="K18" s="122" t="s">
+      <c r="K18" s="106" t="s">
         <v>102</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
-      <c r="T18" s="242" t="s">
+      <c r="T18" s="213" t="s">
         <v>213</v>
       </c>
-      <c r="U18" s="56" t="s">
+      <c r="U18" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="V18" s="15" t="s">
+      <c r="V18" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="W18" s="139">
+      <c r="W18" s="121">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F19" s="161"/>
-      <c r="G19" s="131"/>
-      <c r="J19" s="176" t="s">
+    <row r="19" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="139"/>
+      <c r="G19" s="82"/>
+      <c r="J19" s="150" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="179" t="s">
+      <c r="K19" s="101" t="s">
         <v>22</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
-      <c r="T19" s="243"/>
-      <c r="U19" s="57" t="s">
+      <c r="T19" s="214"/>
+      <c r="U19" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="V19" s="10" t="s">
+      <c r="V19" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="W19" s="108">
+      <c r="W19" s="93">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J20" s="177" t="s">
+    <row r="20" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="116" t="s">
+      <c r="K20" s="101" t="s">
         <v>19</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
-      <c r="T20" s="243"/>
-      <c r="U20" s="57" t="s">
+      <c r="T20" s="214"/>
+      <c r="U20" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="V20" s="10" t="s">
+      <c r="V20" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="W20" s="108">
+      <c r="W20" s="93">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J21" s="176" t="s">
+    <row r="21" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="116" t="s">
+      <c r="K21" s="101" t="s">
         <v>184</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
-      <c r="T21" s="243"/>
-      <c r="U21" s="57" t="s">
+      <c r="T21" s="214"/>
+      <c r="U21" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="V21" s="10" t="s">
+      <c r="V21" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="W21" s="108">
+      <c r="W21" s="93">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J22" s="176" t="s">
+    <row r="22" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="116" t="s">
+      <c r="K22" s="101" t="s">
         <v>21</v>
       </c>
       <c r="L22">
         <v>3</v>
       </c>
-      <c r="T22" s="243"/>
-      <c r="U22" s="57" t="s">
+      <c r="T22" s="214"/>
+      <c r="U22" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="V22" s="10" t="s">
+      <c r="V22" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="W22" s="108">
+      <c r="W22" s="93">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J23" s="176" t="s">
+    <row r="23" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="124" t="s">
+      <c r="K23" s="107" t="s">
         <v>27</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
-      <c r="T23" s="243"/>
-      <c r="U23" s="57" t="s">
+      <c r="T23" s="214"/>
+      <c r="U23" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="V23" s="10" t="s">
+      <c r="V23" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="W23" s="108">
+      <c r="W23" s="93">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J24" s="168" t="s">
+    <row r="24" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="K24" s="164" t="s">
+      <c r="K24" s="110" t="s">
         <v>101</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
-      <c r="T24" s="243"/>
-      <c r="U24" s="57" t="s">
+      <c r="T24" s="214"/>
+      <c r="U24" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="V24" s="10" t="s">
+      <c r="V24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="W24" s="108">
+      <c r="W24" s="93">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J25" s="168" t="s">
+    <row r="25" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="116" t="s">
+      <c r="K25" s="101" t="s">
         <v>25</v>
       </c>
       <c r="L25">
         <v>3</v>
       </c>
-      <c r="T25" s="243"/>
-      <c r="U25" s="57" t="s">
+      <c r="T25" s="214"/>
+      <c r="U25" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="V25" s="10" t="s">
+      <c r="V25" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="W25" s="108">
+      <c r="W25" s="93">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J26" s="168" t="s">
+    <row r="26" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="165" t="s">
+      <c r="K26" s="141" t="s">
         <v>114</v>
       </c>
       <c r="L26">
         <v>3</v>
       </c>
-      <c r="T26" s="244"/>
-      <c r="U26" s="58" t="s">
+      <c r="T26" s="215"/>
+      <c r="U26" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="V26" s="19" t="s">
+      <c r="V26" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="W26" s="141">
+      <c r="W26" s="123">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J27" s="168" t="s">
+    <row r="27" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="116" t="s">
+      <c r="K27" s="101" t="s">
         <v>26</v>
       </c>
       <c r="L27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J28" s="174" t="s">
+    <row r="28" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="162" t="s">
+      <c r="K28" s="140" t="s">
         <v>18</v>
       </c>
       <c r="L28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J29" s="174" t="s">
+    <row r="29" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="K29" s="114" t="s">
+      <c r="K29" s="99" t="s">
         <v>145</v>
       </c>
       <c r="L29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J30" s="174" t="s">
+    <row r="30" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="148" t="s">
         <v>209</v>
       </c>
-      <c r="K30" s="162" t="s">
+      <c r="K30" s="140" t="s">
         <v>209</v>
       </c>
       <c r="L30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J31" s="174" t="s">
+    <row r="31" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="125" t="s">
+      <c r="K31" s="108" t="s">
         <v>143</v>
       </c>
       <c r="L31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J32" s="174" t="s">
+    <row r="32" spans="3:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="K32" s="113" t="s">
+      <c r="K32" s="98" t="s">
         <v>103</v>
       </c>
       <c r="L32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J33" s="168" t="s">
+    <row r="33" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="K33" s="119" t="s">
+      <c r="K33" s="100" t="s">
         <v>90</v>
       </c>
       <c r="L33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J34" s="168" t="s">
+    <row r="34" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="K34" s="178" t="s">
+      <c r="K34" s="152" t="s">
         <v>166</v>
       </c>
       <c r="L34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J35" s="168" t="s">
+    <row r="35" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="K35" s="115" t="s">
+      <c r="K35" s="100" t="s">
         <v>108</v>
       </c>
       <c r="L35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J36" s="168" t="s">
+    <row r="36" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="115" t="s">
+      <c r="K36" s="100" t="s">
         <v>107</v>
       </c>
       <c r="L36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J37" s="168" t="s">
+    <row r="37" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="K37" s="162" t="s">
+      <c r="K37" s="140" t="s">
         <v>97</v>
       </c>
       <c r="L37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J38" s="168" t="s">
+    <row r="38" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K38" s="162" t="s">
+      <c r="K38" s="140" t="s">
         <v>104</v>
       </c>
       <c r="L38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="125" t="s">
+    <row r="39" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="108" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="J43" t="s">
         <v>210</v>
       </c>
@@ -7442,7 +6938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="J44" t="s">
         <v>210</v>
       </c>
@@ -7453,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="J45" t="s">
         <v>210</v>
       </c>
@@ -7464,7 +6960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
         <v>211</v>
       </c>
@@ -7475,7 +6971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="J47" t="s">
         <v>211</v>
       </c>
@@ -7486,7 +6982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
         <v>211</v>
       </c>
@@ -7497,7 +6993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J49" t="s">
         <v>212</v>
       </c>
@@ -7508,7 +7004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J50" t="s">
         <v>212</v>
       </c>
@@ -7519,7 +7015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J51" t="s">
         <v>212</v>
       </c>
